--- a/checklist/Review_Checklist.xlsx
+++ b/checklist/Review_Checklist.xlsx
@@ -204,12 +204,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="E30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngo Xuan. Trinh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+like 
+getObjectA().doAFunction().checkValue().
+NOTE: Not apply for Builder pattern</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ngo Xuan. Trinh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+like 
+else {
+// Do nothing
+}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>N0</t>
   </si>
@@ -295,9 +348,6 @@
     <t>The function in lower layer  did not throw exception to higher one</t>
   </si>
   <si>
-    <t>Using goto/break/return in the iteration</t>
-  </si>
-  <si>
     <t>Did not close the stream / clear the buffer after processing</t>
   </si>
   <si>
@@ -332,13 +382,37 @@
   </si>
   <si>
     <t>Format</t>
+  </si>
+  <si>
+    <t>Catch mutli exceptions</t>
+  </si>
+  <si>
+    <t>Multi caller function</t>
+  </si>
+  <si>
+    <t>If without else statement</t>
+  </si>
+  <si>
+    <t>Using magic number</t>
+  </si>
+  <si>
+    <t>Using break / goto in the loop</t>
+  </si>
+  <si>
+    <t>Empty statement</t>
+  </si>
+  <si>
+    <t>Duplicated code</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +453,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -470,6 +557,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,14 +841,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:I44"/>
+  <dimension ref="C5:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" customWidth="1"/>
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
@@ -768,6 +859,9 @@
   <sheetData>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,8 +882,8 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -803,6 +897,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
       <c r="D8" s="3">
         <v>2</v>
       </c>
@@ -815,6 +910,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
       <c r="D9" s="3">
         <v>3</v>
       </c>
@@ -827,8 +923,9 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
@@ -839,8 +936,9 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="3:9" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
@@ -851,8 +949,9 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>17</v>
@@ -863,8 +962,11 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>18</v>
@@ -875,11 +977,9 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
@@ -890,8 +990,9 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
@@ -902,8 +1003,9 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
@@ -914,8 +1016,9 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>23</v>
@@ -926,8 +1029,9 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>24</v>
@@ -938,9 +1042,12 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3">
+        <v>13</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -948,11 +1055,12 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -960,14 +1068,12 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -975,35 +1081,40 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
       <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
       <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1011,11 +1122,12 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1023,11 +1135,12 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1035,56 +1148,66 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
       <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
       <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
       <c r="D31" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1092,149 +1215,86 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
       <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
       <c r="D33" s="3">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D34" s="3">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
       <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
       <c r="D36" s="3">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="3">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="3">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="3">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="3">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C29:C33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Refer!$D$7:$D$11</xm:f>
